--- a/LoginScreen.xlsx
+++ b/LoginScreen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485625D-8191-4DF7-AF6E-B1544F6A1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66BF92-9A6C-4219-AF2E-F1B60F544D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5B9E699-CF0D-44E8-BC5F-C0E59BD17ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>FieldName</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,7 +602,9 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
@@ -625,7 +627,9 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="7"/>
     </row>

--- a/LoginScreen.xlsx
+++ b/LoginScreen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI_Jigesh\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komanisha\Downloads\POMGeneratorAI 1_Jigesh_08132024 (1)\POMGeneratorAI\src\main\resources\Input\ScreenSpecs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66BF92-9A6C-4219-AF2E-F1B60F544D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440A5F0-E95C-4B8A-AA02-219A0D353483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5B9E699-CF0D-44E8-BC5F-C0E59BD17ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>FieldName</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>SelectApp</t>
+  </si>
+  <si>
+    <t>LoginScreen</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,10 +540,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -559,11 +562,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -584,11 +587,11 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -609,11 +612,11 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -710,6 +713,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9911B63BE9B164EB5DAF366E8A327D5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482e6842186e59edea323b162a1d3181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b764bea3eb9b1a5be8fd57fac5fb459b">
     <xsd:element name="properties">
@@ -823,15 +835,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -839,6 +842,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF43ACC-F226-4469-9DDE-A82026049354}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -854,14 +865,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B106C50D-B7B1-439A-8852-4A31DC926647}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48020F2B-1920-4744-8DC3-0BC80B7DF218}">
   <ds:schemaRefs>
